--- a/document/交易大盘数据库设计表@20180326.xlsx
+++ b/document/交易大盘数据库设计表@20180326.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="9841" activeTab="4" tabRatio="600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22875" windowHeight="9826" activeTab="4" tabRatio="600"/>
   </bookViews>
   <sheets>
     <sheet name="用户系统" sheetId="1" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="392">
   <si>
     <t>user_tab</t>
   </si>
@@ -1593,6 +1593,9 @@
     <t>币种转出记录号</t>
   </si>
   <si>
+    <t>电子钱包操作记录号</t>
+  </si>
+  <si>
     <t>walletAccount</t>
   </si>
   <si>
@@ -1627,7 +1630,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="h:mm"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="11">
+  <fonts count="12" x14ac:knownFonts="12">
     <font>
       <sz val="11.0"/>
       <name val="宋体"/>
@@ -1684,6 +1687,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1715,7 +1724,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="100">
+  <borders count="101">
     <border>
       <left/>
       <right/>
@@ -2820,6 +2829,21 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -3415,6 +3439,12 @@
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="76" applyBorder="1" applyAlignment="1" xfId="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3422,26 +3452,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="76" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="77" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="77" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="78" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="79" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="79" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="80" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="80" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="81" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="81" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="82" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="82" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="83" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -3449,7 +3476,7 @@
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="84" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="85" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="85" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="86" applyBorder="1" applyAlignment="1" xfId="0">
@@ -3458,14 +3485,14 @@
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="87" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="88" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="88" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="89" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="90" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="90" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="91" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -3473,7 +3500,7 @@
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="92" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="93" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="93" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="94" applyBorder="1" applyAlignment="1" xfId="0">
@@ -3482,28 +3509,25 @@
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="95" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="96" applyBorder="1" applyAlignment="1" xfId="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="96" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="97" applyBorder="1" applyAlignment="1" xfId="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="98" applyBorder="1" applyAlignment="1" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" applyFont="1" fillId="2" applyFill="1" borderId="98" applyBorder="1" applyAlignment="1" xfId="1">
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="2" applyFill="1" borderId="99" applyBorder="1" applyAlignment="1" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="99" applyBorder="1" applyAlignment="1" xfId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" borderId="100" applyBorder="1" applyAlignment="1" xfId="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3544,17 +3568,17 @@
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
@@ -3702,7 +3726,7 @@
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="104" t="s">
+      <c r="I8" s="106" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="9"/>
@@ -3726,7 +3750,7 @@
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="103"/>
+      <c r="I9" s="105"/>
       <c r="J9" s="9"/>
       <c r="K9" s="8"/>
     </row>
@@ -3896,17 +3920,17 @@
       <c r="B17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="110" t="s">
+      <c r="C17" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="108"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="110"/>
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="5" t="s">
@@ -4076,17 +4100,17 @@
       <c r="B25" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="113" t="s">
+      <c r="C25" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="111"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="114"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="113"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="5" t="s">
@@ -4540,17 +4564,17 @@
       <c r="B47" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="114" t="s">
+      <c r="C47" s="116" t="s">
         <v>86</v>
       </c>
-      <c r="D47" s="114"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="115"/>
-      <c r="G47" s="114"/>
-      <c r="H47" s="114"/>
-      <c r="I47" s="114"/>
-      <c r="J47" s="114"/>
-      <c r="K47" s="114"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="116"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="116"/>
     </row>
     <row r="48" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="5" t="s">
@@ -4803,17 +4827,17 @@
       <c r="B59" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="113" t="s">
+      <c r="C59" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="D59" s="112"/>
-      <c r="E59" s="112"/>
-      <c r="F59" s="112"/>
-      <c r="G59" s="112"/>
-      <c r="H59" s="112"/>
-      <c r="I59" s="112"/>
-      <c r="J59" s="112"/>
-      <c r="K59" s="111"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="114"/>
+      <c r="F59" s="114"/>
+      <c r="G59" s="114"/>
+      <c r="H59" s="114"/>
+      <c r="I59" s="114"/>
+      <c r="J59" s="114"/>
+      <c r="K59" s="113"/>
     </row>
     <row r="60" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="5" t="s">
@@ -5074,17 +5098,17 @@
       <c r="B72" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C72" s="102" t="s">
+      <c r="C72" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="D72" s="102"/>
-      <c r="E72" s="102"/>
-      <c r="F72" s="102"/>
-      <c r="G72" s="102"/>
-      <c r="H72" s="102"/>
-      <c r="I72" s="102"/>
-      <c r="J72" s="102"/>
-      <c r="K72" s="102"/>
+      <c r="D72" s="104"/>
+      <c r="E72" s="104"/>
+      <c r="F72" s="104"/>
+      <c r="G72" s="104"/>
+      <c r="H72" s="104"/>
+      <c r="I72" s="104"/>
+      <c r="J72" s="104"/>
+      <c r="K72" s="104"/>
     </row>
     <row r="73" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="5" t="s">
@@ -5138,7 +5162,7 @@
       <c r="H74" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I74" s="106" t="s">
+      <c r="I74" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J74" s="9"/>
@@ -5162,7 +5186,7 @@
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
-      <c r="I75" s="105"/>
+      <c r="I75" s="107"/>
       <c r="J75" s="9"/>
       <c r="K75" s="8"/>
     </row>
@@ -5275,17 +5299,17 @@
       <c r="B2" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
@@ -5451,17 +5475,17 @@
       <c r="B10" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="113" t="s">
+      <c r="C10" s="115" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="111"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="113"/>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
@@ -5581,17 +5605,17 @@
       <c r="B16" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
@@ -5709,17 +5733,17 @@
       <c r="B22" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="102" t="s">
+      <c r="C22" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="102"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
@@ -5931,17 +5955,17 @@
       <c r="B32" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="113" t="s">
+      <c r="C32" s="115" t="s">
         <v>157</v>
       </c>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="111"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="113"/>
     </row>
     <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="5" t="s">
@@ -6105,17 +6129,17 @@
       <c r="B40" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C40" s="113" t="s">
+      <c r="C40" s="115" t="s">
         <v>161</v>
       </c>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="112"/>
-      <c r="I40" s="112"/>
-      <c r="J40" s="112"/>
-      <c r="K40" s="111"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="114"/>
+      <c r="K40" s="113"/>
     </row>
     <row r="41" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="5" t="s">
@@ -6381,17 +6405,17 @@
       <c r="B53" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C53" s="113" t="s">
+      <c r="C53" s="115" t="s">
         <v>171</v>
       </c>
-      <c r="D53" s="112"/>
-      <c r="E53" s="112"/>
-      <c r="F53" s="112"/>
-      <c r="G53" s="112"/>
-      <c r="H53" s="112"/>
-      <c r="I53" s="112"/>
-      <c r="J53" s="112"/>
-      <c r="K53" s="111"/>
+      <c r="D53" s="114"/>
+      <c r="E53" s="114"/>
+      <c r="F53" s="114"/>
+      <c r="G53" s="114"/>
+      <c r="H53" s="114"/>
+      <c r="I53" s="114"/>
+      <c r="J53" s="114"/>
+      <c r="K53" s="113"/>
     </row>
     <row r="54" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="5" t="s">
@@ -6657,17 +6681,17 @@
       <c r="B66" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C66" s="113" t="s">
+      <c r="C66" s="115" t="s">
         <v>177</v>
       </c>
-      <c r="D66" s="112"/>
-      <c r="E66" s="112"/>
-      <c r="F66" s="112"/>
-      <c r="G66" s="112"/>
-      <c r="H66" s="112"/>
-      <c r="I66" s="112"/>
-      <c r="J66" s="112"/>
-      <c r="K66" s="111"/>
+      <c r="D66" s="114"/>
+      <c r="E66" s="114"/>
+      <c r="F66" s="114"/>
+      <c r="G66" s="114"/>
+      <c r="H66" s="114"/>
+      <c r="I66" s="114"/>
+      <c r="J66" s="114"/>
+      <c r="K66" s="113"/>
     </row>
     <row r="67" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="5" t="s">
@@ -6961,17 +6985,17 @@
       <c r="B80" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C80" s="113" t="s">
+      <c r="C80" s="115" t="s">
         <v>184</v>
       </c>
-      <c r="D80" s="112"/>
-      <c r="E80" s="112"/>
-      <c r="F80" s="112"/>
-      <c r="G80" s="112"/>
-      <c r="H80" s="112"/>
-      <c r="I80" s="112"/>
-      <c r="J80" s="112"/>
-      <c r="K80" s="111"/>
+      <c r="D80" s="114"/>
+      <c r="E80" s="114"/>
+      <c r="F80" s="114"/>
+      <c r="G80" s="114"/>
+      <c r="H80" s="114"/>
+      <c r="I80" s="114"/>
+      <c r="J80" s="114"/>
+      <c r="K80" s="113"/>
     </row>
     <row r="81" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="5" t="s">
@@ -7303,17 +7327,17 @@
       <c r="B2" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
@@ -7677,17 +7701,17 @@
       <c r="B19" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="104" t="s">
         <v>213</v>
       </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="102"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="5" t="s">
@@ -8077,17 +8101,17 @@
       <c r="B37" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C37" s="102" t="s">
+      <c r="C37" s="104" t="s">
         <v>231</v>
       </c>
-      <c r="D37" s="102"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="102"/>
-      <c r="I37" s="102"/>
-      <c r="J37" s="102"/>
-      <c r="K37" s="102"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="104"/>
     </row>
     <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="5" t="s">
@@ -8453,17 +8477,17 @@
       <c r="B54" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C54" s="102" t="s">
+      <c r="C54" s="104" t="s">
         <v>244</v>
       </c>
-      <c r="D54" s="102"/>
-      <c r="E54" s="102"/>
-      <c r="F54" s="107"/>
-      <c r="G54" s="102"/>
-      <c r="H54" s="102"/>
-      <c r="I54" s="102"/>
-      <c r="J54" s="102"/>
-      <c r="K54" s="102"/>
+      <c r="D54" s="104"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="109"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="104"/>
+      <c r="I54" s="104"/>
+      <c r="J54" s="104"/>
+      <c r="K54" s="104"/>
     </row>
     <row r="55" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="5" t="s">
@@ -8755,17 +8779,17 @@
       <c r="B68" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C68" s="102" t="s">
+      <c r="C68" s="104" t="s">
         <v>253</v>
       </c>
-      <c r="D68" s="102"/>
-      <c r="E68" s="102"/>
-      <c r="F68" s="107"/>
-      <c r="G68" s="102"/>
-      <c r="H68" s="102"/>
-      <c r="I68" s="102"/>
-      <c r="J68" s="102"/>
-      <c r="K68" s="102"/>
+      <c r="D68" s="104"/>
+      <c r="E68" s="104"/>
+      <c r="F68" s="109"/>
+      <c r="G68" s="104"/>
+      <c r="H68" s="104"/>
+      <c r="I68" s="104"/>
+      <c r="J68" s="104"/>
+      <c r="K68" s="104"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="5" t="s">
@@ -8993,17 +9017,17 @@
       <c r="B79" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C79" s="102" t="s">
+      <c r="C79" s="104" t="s">
         <v>255</v>
       </c>
-      <c r="D79" s="102"/>
-      <c r="E79" s="102"/>
-      <c r="F79" s="107"/>
-      <c r="G79" s="102"/>
-      <c r="H79" s="102"/>
-      <c r="I79" s="102"/>
-      <c r="J79" s="102"/>
-      <c r="K79" s="102"/>
+      <c r="D79" s="104"/>
+      <c r="E79" s="104"/>
+      <c r="F79" s="109"/>
+      <c r="G79" s="104"/>
+      <c r="H79" s="104"/>
+      <c r="I79" s="104"/>
+      <c r="J79" s="104"/>
+      <c r="K79" s="104"/>
     </row>
     <row r="80" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="5" t="s">
@@ -9203,17 +9227,17 @@
       <c r="B89" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C89" s="102" t="s">
+      <c r="C89" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="D89" s="102"/>
-      <c r="E89" s="102"/>
-      <c r="F89" s="107"/>
-      <c r="G89" s="102"/>
-      <c r="H89" s="102"/>
-      <c r="I89" s="102"/>
-      <c r="J89" s="102"/>
-      <c r="K89" s="102"/>
+      <c r="D89" s="104"/>
+      <c r="E89" s="104"/>
+      <c r="F89" s="109"/>
+      <c r="G89" s="104"/>
+      <c r="H89" s="104"/>
+      <c r="I89" s="104"/>
+      <c r="J89" s="104"/>
+      <c r="K89" s="104"/>
     </row>
     <row r="90" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="5" t="s">
@@ -9457,17 +9481,17 @@
       <c r="B2" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="112" t="s">
         <v>265</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="108"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="110"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
@@ -9677,17 +9701,17 @@
       <c r="B12" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="104" t="s">
         <v>275</v>
       </c>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
@@ -9889,17 +9913,17 @@
       <c r="B22" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C22" s="102" t="s">
+      <c r="C22" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="102"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
@@ -10097,17 +10121,17 @@
       <c r="B32" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="C32" s="113" t="s">
+      <c r="C32" s="115" t="s">
         <v>293</v>
       </c>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="111"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="113"/>
     </row>
     <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="5" t="s">
@@ -10311,17 +10335,17 @@
       <c r="B42" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="C42" s="113" t="s">
+      <c r="C42" s="115" t="s">
         <v>304</v>
       </c>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="112"/>
-      <c r="I42" s="112"/>
-      <c r="J42" s="112"/>
-      <c r="K42" s="111"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="114"/>
+      <c r="K42" s="113"/>
     </row>
     <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="5" t="s">
@@ -10525,17 +10549,17 @@
       <c r="B52" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="C52" s="102" t="s">
+      <c r="C52" s="104" t="s">
         <v>310</v>
       </c>
-      <c r="D52" s="102"/>
-      <c r="E52" s="102"/>
-      <c r="F52" s="102"/>
-      <c r="G52" s="102"/>
-      <c r="H52" s="102"/>
-      <c r="I52" s="102"/>
-      <c r="J52" s="102"/>
-      <c r="K52" s="102"/>
+      <c r="D52" s="104"/>
+      <c r="E52" s="104"/>
+      <c r="F52" s="104"/>
+      <c r="G52" s="104"/>
+      <c r="H52" s="104"/>
+      <c r="I52" s="104"/>
+      <c r="J52" s="104"/>
+      <c r="K52" s="104"/>
     </row>
     <row r="53" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="5" t="s">
@@ -10685,17 +10709,17 @@
       <c r="B60" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="C60" s="118" t="s">
+      <c r="C60" s="120" t="s">
         <v>317</v>
       </c>
-      <c r="D60" s="117"/>
-      <c r="E60" s="117"/>
-      <c r="F60" s="117"/>
-      <c r="G60" s="117"/>
-      <c r="H60" s="117"/>
-      <c r="I60" s="117"/>
-      <c r="J60" s="117"/>
-      <c r="K60" s="116"/>
+      <c r="D60" s="119"/>
+      <c r="E60" s="119"/>
+      <c r="F60" s="119"/>
+      <c r="G60" s="119"/>
+      <c r="H60" s="119"/>
+      <c r="I60" s="119"/>
+      <c r="J60" s="119"/>
+      <c r="K60" s="118"/>
     </row>
     <row r="61" spans="1:11" s="3" customFormat="1" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="20" t="s">
@@ -10837,17 +10861,17 @@
       <c r="B67" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="C67" s="121" t="s">
+      <c r="C67" s="123" t="s">
         <v>329</v>
       </c>
-      <c r="D67" s="120"/>
-      <c r="E67" s="120"/>
-      <c r="F67" s="120"/>
-      <c r="G67" s="120"/>
-      <c r="H67" s="120"/>
-      <c r="I67" s="120"/>
-      <c r="J67" s="120"/>
-      <c r="K67" s="119"/>
+      <c r="D67" s="122"/>
+      <c r="E67" s="122"/>
+      <c r="F67" s="122"/>
+      <c r="G67" s="122"/>
+      <c r="H67" s="122"/>
+      <c r="I67" s="122"/>
+      <c r="J67" s="122"/>
+      <c r="K67" s="121"/>
       <c r="L67" s="36"/>
     </row>
     <row r="68" spans="1:12" s="2" customFormat="1" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
@@ -11107,10 +11131,10 @@
   <sheetPr>
     <outlinePr showOutlineSymbols="1"/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I40" activeCellId="0" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -11128,17 +11152,17 @@
       <c r="B1" s="72" t="s">
         <v>344</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="124" t="s">
         <v>345</v>
       </c>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
       <c r="L1" s="63"/>
     </row>
     <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11351,17 +11375,17 @@
       <c r="B12" s="60" t="s">
         <v>353</v>
       </c>
-      <c r="C12" s="122" t="s">
+      <c r="C12" s="124" t="s">
         <v>354</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="56"/>
@@ -11423,12 +11447,12 @@
       <c r="J14" s="52"/>
       <c r="K14" s="51"/>
     </row>
-    <row r="15" spans="1:12" s="126" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="128"/>
-      <c r="B15" s="127" t="s">
+    <row r="15" spans="1:12" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="100"/>
+      <c r="B15" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="127" t="s">
+      <c r="C15" s="99" t="s">
         <v>346</v>
       </c>
       <c r="D15" s="65" t="s">
@@ -11581,17 +11605,17 @@
       <c r="B23" s="91" t="s">
         <v>365</v>
       </c>
-      <c r="C23" s="124" t="s">
+      <c r="C23" s="126" t="s">
         <v>366</v>
       </c>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="124"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="126"/>
+      <c r="K23" s="126"/>
     </row>
     <row r="24" spans="1:11" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="93" t="s">
@@ -11868,17 +11892,17 @@
       <c r="B37" s="91" t="s">
         <v>378</v>
       </c>
-      <c r="C37" s="124" t="s">
+      <c r="C37" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="D37" s="124"/>
-      <c r="E37" s="124"/>
-      <c r="F37" s="124"/>
-      <c r="G37" s="124"/>
-      <c r="H37" s="124"/>
-      <c r="I37" s="124"/>
-      <c r="J37" s="124"/>
-      <c r="K37" s="124"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="126"/>
+      <c r="G37" s="126"/>
+      <c r="H37" s="126"/>
+      <c r="I37" s="126"/>
+      <c r="J37" s="126"/>
+      <c r="K37" s="126"/>
     </row>
     <row r="38" spans="1:11" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="93" t="s">
@@ -11943,35 +11967,31 @@
       </c>
     </row>
     <row r="40" spans="1:11" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>93</v>
+      <c r="B40" s="95" t="s">
+        <v>355</v>
+      </c>
+      <c r="C40" s="128" t="s">
+        <v>382</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="35">
-        <v>11.0</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="34"/>
+        <v>17</v>
+      </c>
+      <c r="E40" s="65">
+        <v>20</v>
+      </c>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="96"/>
     </row>
     <row r="41" spans="1:11" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>13</v>
+        <v>92</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>93</v>
       </c>
       <c r="D41" s="35" t="s">
         <v>14</v>
@@ -11988,87 +12008,89 @@
       </c>
       <c r="I41" s="35"/>
       <c r="J41" s="35"/>
-      <c r="K41" s="41"/>
+      <c r="K41" s="34"/>
     </row>
     <row r="42" spans="1:11" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>13</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E42" s="35">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
       <c r="F42" s="35" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
+      <c r="H42" s="35" t="s">
+        <v>15</v>
+      </c>
       <c r="I42" s="35"/>
       <c r="J42" s="35"/>
-      <c r="K42" s="34"/>
-    </row>
-    <row r="43" spans="1:11" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="98"/>
-      <c r="B43" s="95" t="s">
-        <v>382</v>
-      </c>
-      <c r="C43" s="96" t="s">
+      <c r="K42" s="41"/>
+    </row>
+    <row r="43" spans="1:11" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="35">
+        <v>16.0</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="34"/>
+    </row>
+    <row r="44" spans="1:11" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="98"/>
+      <c r="B44" s="95" t="s">
         <v>383</v>
       </c>
-      <c r="D43" s="65" t="s">
+      <c r="C44" s="96" t="s">
+        <v>384</v>
+      </c>
+      <c r="D44" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="65">
+      <c r="E44" s="65">
         <v>16.0</v>
       </c>
-      <c r="F43" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="96"/>
-    </row>
-    <row r="44" spans="1:11" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="35">
-        <v>10.0</v>
-      </c>
-      <c r="F44" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="34"/>
+      <c r="F44" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="96"/>
     </row>
     <row r="45" spans="1:11" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="33" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>384</v>
-      </c>
-      <c r="D45" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>29</v>
+        <v>370</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="35">
+        <v>10.0</v>
       </c>
       <c r="F45" s="35" t="s">
         <v>15</v>
@@ -12081,105 +12103,107 @@
     </row>
     <row r="46" spans="1:11" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="33" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C46" s="34" t="s">
         <v>385</v>
       </c>
-      <c r="D46" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E46" s="35">
-        <v>1.0</v>
+      <c r="D46" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>29</v>
       </c>
       <c r="F46" s="35" t="s">
         <v>15</v>
       </c>
       <c r="G46" s="35"/>
       <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35">
+      <c r="I46" s="38"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="34"/>
+    </row>
+    <row r="47" spans="1:11" s="37" customFormat="1" ht="26.2496" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="35">
         <v>1.0</v>
       </c>
-      <c r="K46" s="34" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D47" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
+      <c r="F47" s="35" t="s">
+        <v>15</v>
+      </c>
       <c r="G47" s="35"/>
       <c r="H47" s="35"/>
       <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="34"/>
-    </row>
-    <row r="48" spans="1:11" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J47" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="K47" s="34" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="37" customFormat="1" ht="22.499657" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="33" t="s">
-        <v>387</v>
+        <v>117</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>388</v>
-      </c>
-      <c r="D48" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E48" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="F48" s="35" t="s">
-        <v>15</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D48" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
       <c r="G48" s="35"/>
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
-      <c r="J48" s="35">
+      <c r="J48" s="35"/>
+      <c r="K48" s="34"/>
+    </row>
+    <row r="49" spans="1:11" s="37" customFormat="1" ht="35.249462" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="35">
         <v>1.0</v>
       </c>
-      <c r="K48" s="34" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="33" t="s">
-        <v>390</v>
-      </c>
-      <c r="C49" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="D49" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
+      <c r="F49" s="35" t="s">
+        <v>15</v>
+      </c>
       <c r="G49" s="35"/>
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="34"/>
+      <c r="J49" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="K49" s="34" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="50" spans="1:11" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="33" t="s">
-        <v>73</v>
+        <v>391</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="35">
-        <v>200.0</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="D50" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="35"/>
       <c r="F50" s="35"/>
       <c r="G50" s="35"/>
       <c r="H50" s="35"/>
@@ -12188,24 +12212,44 @@
       <c r="K50" s="34"/>
     </row>
     <row r="51" spans="1:11" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="97" t="s">
+      <c r="B51" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="35">
+        <v>200.0</v>
+      </c>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="34"/>
+    </row>
+    <row r="52" spans="1:11" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="96" t="s">
+      <c r="C52" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="65" t="s">
+      <c r="D52" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="96"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="4">
